--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H2">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>47.151634385088</v>
+        <v>0.1152498703893333</v>
       </c>
       <c r="R2">
-        <v>424.364709465792</v>
+        <v>1.037248833504</v>
       </c>
       <c r="S2">
-        <v>0.001825615484774658</v>
+        <v>8.638859994717835E-06</v>
       </c>
       <c r="T2">
-        <v>0.001825615484774657</v>
+        <v>8.638859994717838E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H3">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>47.37252923587955</v>
+        <v>9.395035605623109</v>
       </c>
       <c r="R3">
-        <v>426.352763122916</v>
+        <v>84.55532045060799</v>
       </c>
       <c r="S3">
-        <v>0.001834168084602238</v>
+        <v>0.0007042298352977492</v>
       </c>
       <c r="T3">
-        <v>0.001834168084602238</v>
+        <v>0.0007042298352977493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H4">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>2.274818515576555</v>
+        <v>0.7227813597986665</v>
       </c>
       <c r="R4">
-        <v>20.473366640189</v>
+        <v>6.505032238187999</v>
       </c>
       <c r="S4">
-        <v>8.807635114345167E-05</v>
+        <v>5.417799562810057E-05</v>
       </c>
       <c r="T4">
-        <v>8.807635114345165E-05</v>
+        <v>5.417799562810059E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J5">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>11775.01296224563</v>
+        <v>145.1219918781013</v>
       </c>
       <c r="R5">
-        <v>105975.1166602107</v>
+        <v>1306.097926902912</v>
       </c>
       <c r="S5">
-        <v>0.4559045784443982</v>
+        <v>0.01087800416394679</v>
       </c>
       <c r="T5">
-        <v>0.455904578444398</v>
+        <v>0.0108780041639468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J6">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>11830.17626178518</v>
@@ -818,10 +818,10 @@
         <v>106471.5863560666</v>
       </c>
       <c r="S6">
-        <v>0.4580403893265446</v>
+        <v>0.8867622678719767</v>
       </c>
       <c r="T6">
-        <v>0.4580403893265445</v>
+        <v>0.8867622678719768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J7">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>568.0824823357884</v>
+        <v>910.1222437127625</v>
       </c>
       <c r="R7">
-        <v>5112.742341022095</v>
+        <v>8191.100193414863</v>
       </c>
       <c r="S7">
-        <v>0.0219949995351472</v>
+        <v>0.06822062892524267</v>
       </c>
       <c r="T7">
-        <v>0.02199499953514719</v>
+        <v>0.06822062892524268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H8">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I8">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J8">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>758.7843675828479</v>
+        <v>5.014198944144</v>
       </c>
       <c r="R8">
-        <v>6829.059308245632</v>
+        <v>45.127790497296</v>
       </c>
       <c r="S8">
-        <v>0.02937858908030315</v>
+        <v>0.0003758525933069605</v>
       </c>
       <c r="T8">
-        <v>0.02937858908030314</v>
+        <v>0.0003758525933069606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H9">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I9">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J9">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>762.339102468415</v>
+        <v>408.751675422888</v>
       </c>
       <c r="R9">
-        <v>6861.051922215735</v>
+        <v>3678.765078805991</v>
       </c>
       <c r="S9">
-        <v>0.02951622119286916</v>
+        <v>0.03063906696515898</v>
       </c>
       <c r="T9">
-        <v>0.02951622119286916</v>
+        <v>0.03063906696515898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H10">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I10">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J10">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>36.60735733167711</v>
+        <v>31.44619181701799</v>
       </c>
       <c r="R10">
-        <v>329.466215985094</v>
+        <v>283.0157263531619</v>
       </c>
       <c r="S10">
-        <v>0.00141736250021748</v>
+        <v>0.002357132789447396</v>
       </c>
       <c r="T10">
-        <v>0.00141736250021748</v>
+        <v>0.002357132789447397</v>
       </c>
     </row>
   </sheetData>
